--- a/artfynd/A 31622-2023.xlsx
+++ b/artfynd/A 31622-2023.xlsx
@@ -2750,10 +2750,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111768503</v>
+        <v>111768476</v>
       </c>
       <c r="B19" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2762,38 +2762,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2801,10 +2802,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>525545.3455456314</v>
+        <v>525546.5036804043</v>
       </c>
       <c r="R19" t="n">
-        <v>6727837.787189188</v>
+        <v>6727881.884716956</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2836,7 +2837,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2846,7 +2847,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2874,10 +2875,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111768476</v>
+        <v>111768503</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2886,39 +2887,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>525546.5036804043</v>
+        <v>525545.3455456314</v>
       </c>
       <c r="R20" t="n">
-        <v>6727881.884716956</v>
+        <v>6727837.787189188</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 31622-2023.xlsx
+++ b/artfynd/A 31622-2023.xlsx
@@ -2750,10 +2750,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111768476</v>
+        <v>111768503</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2762,39 +2762,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2802,10 +2801,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>525546.5036804043</v>
+        <v>525545.3455456314</v>
       </c>
       <c r="R19" t="n">
-        <v>6727881.884716956</v>
+        <v>6727837.787189188</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2837,7 +2836,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2847,7 +2846,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2875,10 +2874,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111768503</v>
+        <v>111768476</v>
       </c>
       <c r="B20" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2887,38 +2886,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>525545.3455456314</v>
+        <v>525546.5036804043</v>
       </c>
       <c r="R20" t="n">
-        <v>6727837.787189188</v>
+        <v>6727881.884716956</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 31622-2023.xlsx
+++ b/artfynd/A 31622-2023.xlsx
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>525545.3455456314</v>
+        <v>525545</v>
       </c>
       <c r="R19" t="n">
-        <v>6727837.787189188</v>
+        <v>6727838</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>525546.5036804043</v>
+        <v>525547</v>
       </c>
       <c r="R20" t="n">
-        <v>6727881.884716956</v>
+        <v>6727882</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>

--- a/artfynd/A 31622-2023.xlsx
+++ b/artfynd/A 31622-2023.xlsx
@@ -2750,10 +2750,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111768503</v>
+        <v>111768476</v>
       </c>
       <c r="B19" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2762,38 +2762,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2801,10 +2802,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>525545</v>
+        <v>525547</v>
       </c>
       <c r="R19" t="n">
-        <v>6727838</v>
+        <v>6727882</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2836,7 +2837,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2846,7 +2847,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:22</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2874,10 +2875,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111768476</v>
+        <v>111768503</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2886,39 +2887,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>525547</v>
+        <v>525545</v>
       </c>
       <c r="R20" t="n">
-        <v>6727882</v>
+        <v>6727838</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:22</t>
         </is>
       </c>
       <c r="AD20" t="b">
